--- a/ExpenseTrackWinterNotes.xlsx
+++ b/ExpenseTrackWinterNotes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rgatc\Desktop\desktop\College\Spring-React\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rgatc\Desktop\desktop\College\Spring-React\ExpenseTrackWinterGit\ExpenseTrackerTutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3340CFA3-7128-43B5-804E-89C07FBD8A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7C04B2-8A78-42FB-90A3-A4C875C7F64F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7695" yWindow="255" windowWidth="21600" windowHeight="11505" xr2:uid="{A6A4FEE8-7CE5-42A4-9EA4-5CD8B4E2CCC8}"/>
+    <workbookView xWindow="7200" yWindow="255" windowWidth="21600" windowHeight="11505" xr2:uid="{A6A4FEE8-7CE5-42A4-9EA4-5CD8B4E2CCC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>spring.io</t>
   </si>
@@ -115,6 +115,48 @@
   </si>
   <si>
     <t>make your insert sql commands in file called import.sql (previously data.sql)</t>
+  </si>
+  <si>
+    <t>npm i -g create-react-app</t>
+  </si>
+  <si>
+    <t>&lt;&lt; not necessary?</t>
+  </si>
+  <si>
+    <t>create-react-app expenseapp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/public </t>
+  </si>
+  <si>
+    <t>contains index.html\</t>
+  </si>
+  <si>
+    <t>src</t>
+  </si>
+  <si>
+    <t>contains js, css, and jsx?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">app.js </t>
+  </si>
+  <si>
+    <t>jsx</t>
+  </si>
+  <si>
+    <t>{dynamic}</t>
+  </si>
+  <si>
+    <t>index.js changed because we want to create category</t>
+  </si>
+  <si>
+    <t>need proxy in order to display (package.json)</t>
+  </si>
+  <si>
+    <t>proxy used to get out of port 3000</t>
+  </si>
+  <si>
+    <t>https://gitmemory.cn/index.php/repo/facebook/create-react-app/issues/11762</t>
   </si>
 </sst>
 </file>
@@ -515,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB72CAD-DCEC-47F6-9651-15CEAD641395}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,6 +691,66 @@
         <v>25</v>
       </c>
     </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>30</v>
+      </c>
+      <c r="B48" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>32</v>
+      </c>
+      <c r="B49" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" t="s">
+        <v>35</v>
+      </c>
+      <c r="D50" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/ExpenseTrackWinterNotes.xlsx
+++ b/ExpenseTrackWinterNotes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rgatc\Desktop\desktop\College\Spring-React\ExpenseTrackWinterGit\ExpenseTrackerTutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7C04B2-8A78-42FB-90A3-A4C875C7F64F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C19E08A-0A90-47E1-90AF-2B6B0CD83B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="255" windowWidth="21600" windowHeight="11505" xr2:uid="{A6A4FEE8-7CE5-42A4-9EA4-5CD8B4E2CCC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>spring.io</t>
   </si>
@@ -157,6 +157,24 @@
   </si>
   <si>
     <t>https://gitmemory.cn/index.php/repo/facebook/create-react-app/issues/11762</t>
+  </si>
+  <si>
+    <t>create Home.js</t>
+  </si>
+  <si>
+    <t>replace index.js to Home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">npm install bootstrap </t>
+  </si>
+  <si>
+    <t>react-cookie</t>
+  </si>
+  <si>
+    <t>react-router-dom AND reactstrap</t>
+  </si>
+  <si>
+    <t>react-router routes between pages</t>
   </si>
 </sst>
 </file>
@@ -557,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB72CAD-DCEC-47F6-9651-15CEAD641395}">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="M51" sqref="M51"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="M63" sqref="M63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,6 +769,32 @@
         <v>40</v>
       </c>
     </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>43</v>
+      </c>
+      <c r="D65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/ExpenseTrackWinterNotes.xlsx
+++ b/ExpenseTrackWinterNotes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rgatc\Desktop\desktop\College\Spring-React\ExpenseTrackWinterGit\ExpenseTrackerTutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C19E08A-0A90-47E1-90AF-2B6B0CD83B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7669FD4B-FEBB-45CC-8AA9-CD2E9AC0E32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="255" windowWidth="21600" windowHeight="11505" xr2:uid="{A6A4FEE8-7CE5-42A4-9EA4-5CD8B4E2CCC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>spring.io</t>
   </si>
@@ -175,19 +175,140 @@
   </si>
   <si>
     <t>react-router routes between pages</t>
+  </si>
+  <si>
+    <t>import 'bootstrap/dist/css/bootstrap.min.css';</t>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>React</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, { </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Component</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> } </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'react'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">import stuff </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC586C0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -210,8 +331,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,35 +700,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB72CAD-DCEC-47F6-9651-15CEAD641395}">
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="M63" sqref="M63"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="N64" sqref="N64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -620,37 +745,37 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="B7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="B8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -658,7 +783,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -666,32 +791,32 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="B21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>22</v>
       </c>
@@ -699,17 +824,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>27</v>
       </c>
@@ -717,12 +842,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>30</v>
       </c>
@@ -730,7 +855,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>32</v>
       </c>
@@ -738,7 +863,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="B50" t="s">
         <v>34</v>
       </c>
@@ -749,37 +874,37 @@
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="B56" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>43</v>
       </c>
@@ -790,13 +915,29 @@
         <v>45</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>46</v>
       </c>
     </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>